--- a/data/trans_bre/P41A_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P41A_R2-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-9.231668840293265</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-9.62858349860416</v>
+        <v>-9.628583498604158</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.3045907848107866</v>
@@ -649,7 +649,7 @@
         <v>-0.4324184393577477</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.5251688003397117</v>
+        <v>-0.5251688003397116</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.60391520445186</v>
+        <v>-10.74463465179324</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.121352973555835</v>
+        <v>-8.802162192985751</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.82422017743934</v>
+        <v>-13.05660635263632</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-14.65262035149851</v>
+        <v>-14.73101016295918</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4151545516247798</v>
+        <v>-0.4143546138104752</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.372376697020547</v>
+        <v>-0.3657238137123085</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5469958129757644</v>
+        <v>-0.5508662514276774</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.667094779651755</v>
+        <v>-0.6670588798917645</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.634284846975491</v>
+        <v>-3.979316233127487</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.184838836067418</v>
+        <v>-2.05096160162736</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-5.68529200843031</v>
+        <v>-5.507517157839955</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-5.088996451129038</v>
+        <v>-5.200712236283571</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1715730155455668</v>
+        <v>-0.1838055389684497</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1037500343372508</v>
+        <v>-0.1083151440003812</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.2976867631180477</v>
+        <v>-0.2858526321054806</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.3307925622254498</v>
+        <v>-0.3251789163195459</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-4.501583029556483</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-6.404074601678589</v>
+        <v>-6.404074601678578</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1077448493898724</v>
@@ -749,7 +749,7 @@
         <v>-0.08713448942406565</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1379851051631298</v>
+        <v>-0.1379851051631296</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.830848549662544</v>
+        <v>-10.15335991888297</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-11.77445456959278</v>
+        <v>-11.68248968976944</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-7.650879317504701</v>
+        <v>-7.75733887832332</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-10.00954548973623</v>
+        <v>-9.841152526276703</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1571039775967556</v>
+        <v>-0.1608317600426649</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1970827550170723</v>
+        <v>-0.1962763619926636</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1425049686339149</v>
+        <v>-0.146169676921326</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2084489887850096</v>
+        <v>-0.2021494233956321</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-2.594399759467271</v>
+        <v>-3.150223801821399</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-5.030098609429505</v>
+        <v>-4.75107329640138</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-1.219636081361685</v>
+        <v>-1.29355975413094</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-2.783270327328915</v>
+        <v>-2.605869617612531</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.04319067800247663</v>
+        <v>-0.0523069633676102</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.08833826680245768</v>
+        <v>-0.08422190117559694</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.0248047833273956</v>
+        <v>-0.0255251536158617</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.06287902117385104</v>
+        <v>-0.05880173513434317</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.074642123131309</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.037595889312504</v>
+        <v>-1.037595889312515</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.05994952067443731</v>
@@ -849,7 +849,7 @@
         <v>-0.01840198274586788</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.02251710006662229</v>
+        <v>-0.02251710006662254</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.30976508432586</v>
+        <v>-9.977608871176988</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.25533292901709</v>
+        <v>-13.98715173784762</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.179229791660697</v>
+        <v>-7.248140397980922</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.94245479869269</v>
+        <v>-7.173656945635659</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1539596339190061</v>
+        <v>-0.1518871167106823</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2013996680400034</v>
+        <v>-0.1938764582861858</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1174525325030234</v>
+        <v>-0.118960628680891</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1396824583977809</v>
+        <v>-0.143533151063328</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.474842639299267</v>
+        <v>3.111591992134104</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.294611599590249</v>
+        <v>-0.8483347133779067</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.268392797007974</v>
+        <v>4.970807275522819</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.116631740579977</v>
+        <v>5.064374254612612</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04096561924610832</v>
+        <v>0.04881452553441722</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.02038227043780627</v>
+        <v>-0.009201743519519488</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09418434045250508</v>
+        <v>0.08896743238242412</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1209323340942765</v>
+        <v>0.1190833205118105</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-7.142020204909488</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-6.852228571691654</v>
+        <v>-6.85222857169166</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1868403160522062</v>
@@ -949,7 +949,7 @@
         <v>-0.1553157718206969</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1645634453474831</v>
+        <v>-0.1645634453474832</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-11.8525964651964</v>
+        <v>-11.89395392201961</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.99950554613481</v>
+        <v>-13.27162007759941</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.586687402532057</v>
+        <v>-9.500269034548738</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-9.401969090384595</v>
+        <v>-9.844409721342023</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2326908159259578</v>
+        <v>-0.2340855555433168</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2585882386781014</v>
+        <v>-0.2632043651700438</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2037850463874785</v>
+        <v>-0.2010007001576911</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2180343351032732</v>
+        <v>-0.2274943378560453</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-6.922416262270819</v>
+        <v>-6.837338685907629</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-8.1643997709064</v>
+        <v>-8.197198145297691</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-4.757434267439161</v>
+        <v>-4.688992020219569</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-3.97157073829402</v>
+        <v>-4.332627812148168</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1422689735358941</v>
+        <v>-0.1420262262209321</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1702377057330554</v>
+        <v>-0.1708971770618533</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.107092910204625</v>
+        <v>-0.104912913374282</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1002734565853577</v>
+        <v>-0.1073371596832938</v>
       </c>
     </row>
     <row r="16">
